--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1363963.993972131</v>
+        <v>1468143.628423202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.42246812243206</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>306.8147867690934</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>131.8088650407918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>15.1190397215654</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>42.76773080618969</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>74.04246190750041</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>111.9187566128687</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
-        <v>301.7248287451625</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>111.1889591390534</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>95.66231227784164</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977349</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>136.7593194687118</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>105.989310737309</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>59.6699024648553</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161920278</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>109.0404882242269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788176329</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>105.6507867899574</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>59.45282559760447</v>
+        <v>0.2811815126421274</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410821</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470409</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.781102412113</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1720.336906620808</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1465.652418414921</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>1176.23524837796</v>
       </c>
       <c r="Y4" t="n">
-        <v>591.781102412113</v>
+        <v>955.4426692344304</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213863</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189675</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.4774356872698</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C7" t="n">
-        <v>386.5412527593629</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>386.5412527593629</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>238.6281591769698</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>238.6281591769698</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>238.6281591769698</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971665</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765778</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307999</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.4774356872698</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2994.542934265599</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>906.9191734699991</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>737.9829905420922</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>737.9829905420922</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>590.0698969596991</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1740.835492585575</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1451.732625711218</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.9191734699991</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5130,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998295</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998295</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998295</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,13 +5296,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468473</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>920.9817565737817</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>770.8651171614459</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>622.9520235790528</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1492.358983475458</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1271.566404331928</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263522</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356152</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232794</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832664</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176862</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970975</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135309</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237292</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093762</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990608</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307854</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028785</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>672.6908673905427</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>377.8878263102392</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580264</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603205</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947403</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741516</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704555</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704555</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561025</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2875.571313159223</v>
+        <v>2823.935653491667</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>2654.99947056376</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>4689.999432584258</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.144598239162</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>4287.543133262104</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>3998.467906606302</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>3743.783418400415</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>3454.366248363454</v>
       </c>
       <c r="X28" t="n">
-        <v>3278.012357132993</v>
+        <v>3226.376697465437</v>
       </c>
       <c r="Y28" t="n">
-        <v>3057.219777989463</v>
+        <v>3005.584118321907</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3210.485548300426</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.53722908186</v>
+        <v>2815.530845237137</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153953</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>2646.59466230923</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>2479.39856302411</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296632</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822171</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998111</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729146</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.430181389154</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098139</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671698</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>4681.594624329728</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398594</v>
+        <v>4498.739789984632</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398594</v>
+        <v>4279.138325007573</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196494</v>
+        <v>3990.063098351771</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990608</v>
+        <v>3735.378610145885</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953647</v>
+        <v>3445.961440108924</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>3217.971889210907</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912099</v>
+        <v>2997.179310067377</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6704,25 +6706,25 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389278</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G37" t="n">
-        <v>202.303641104158</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.199413378161</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2592.376702893873</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>3087.702309109632</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>3087.702309109632</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>3715.300272664238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.547769317909</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900021</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776664</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952732</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F46" t="n">
-        <v>295.5818533952732</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G46" t="n">
-        <v>295.5818533952732</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8700222374713</v>
+        <v>94.10068477791341</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664504</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>8.661728554219422</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>180.533687599282</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.8542358274135</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409392966</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>116.6691671648102</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194536</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>121.5862749664509</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457059964</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>75.37549921168723</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>21.81301072096105</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675407</v>
+        <v>934650.9824675408</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214789</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
@@ -26350,10 +26352,10 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,13 +26524,13 @@
         <v>-1014491.591111966</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156268</v>
+        <v>314253.1546156263</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156269</v>
+        <v>314253.1546156266</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818511</v>
+        <v>66154.65695818557</v>
       </c>
       <c r="F6" t="n">
         <v>391567.1187655408</v>
@@ -26537,10 +26539,10 @@
         <v>391567.1187655408</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655411</v>
+        <v>391567.1187655408</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655408</v>
+        <v>391567.1187655407</v>
       </c>
       <c r="J6" t="n">
         <v>174035.9163682633</v>
@@ -26549,19 +26551,19 @@
         <v>391567.1187655408</v>
       </c>
       <c r="L6" t="n">
-        <v>391567.118765541</v>
+        <v>391567.1187655408</v>
       </c>
       <c r="M6" t="n">
-        <v>306512.0908300289</v>
+        <v>306512.0908300291</v>
       </c>
       <c r="N6" t="n">
-        <v>391567.1187655409</v>
+        <v>391567.1187655408</v>
       </c>
       <c r="O6" t="n">
         <v>391567.1187655408</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655407</v>
+        <v>391567.1187655409</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>308.2605734982509</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>42.42618194831959</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>35.43795605783606</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>271.0927984840475</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>322.5051609648178</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>70.71255300682037</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>106.6658967392261</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
-        <v>84.51310991089105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>34.23208888387781</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.8866369983276</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29712,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-2.98509025987305e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1175412796302</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>297.7596336167228</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>334.769386094615</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,16 +33034,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>250.1723312270667</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>405.637736314576</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948329</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113889</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>61.77582919629693</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>163.7852262023926</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802847</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010482</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>110.1905571410452</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312427</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281453</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370299</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468143.628423202</v>
+        <v>1464131.018409209</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>306.8147867690934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>79.41818244097614</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>15.1190397215654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>300.3401491857031</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1104,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>33.36459702978399</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.9187566128687</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>293.6407719183061</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>95.66231227784164</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>136.7593194687118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>16.09765778288657</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.14989839348819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>37.41782514684107</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8253826161920278</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788176329</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>100.0416311957212</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2811815126421274</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2320.807863037144</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.807863037144</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.807863037144</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.7942044041906</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1720.336906620808</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1465.652418414921</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1176.23524837796</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1176.23524837796</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.4426692344304</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1803.762477684623</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1803.762477684623</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1514.659610810266</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1514.659610810266</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1225.242440773306</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1740.835492585575</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.732625711218</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.048137505331</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W10" t="n">
-        <v>1197.048137505331</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>1197.048137505331</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.255558361801</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.917939501689</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>920.9817565737817</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>770.8651171614459</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E16" t="n">
-        <v>622.9520235790528</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.348534373476</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.358983475458</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.566404331928</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6129,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2823.935653491667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2654.99947056376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4689.999432584258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.144598239162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4287.543133262104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3998.467906606302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3743.783418400415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3454.366248363454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3226.376697465437</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3005.584118321907</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237137</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.59466230923</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.59466230923</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.59466230923</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.59466230923</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.39856302411</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866308</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998111</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098139</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671698</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4681.594624329728</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4498.739789984632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4279.138325007573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145885</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.961440108924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067377</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2100.27549966854</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1811.200273012738</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.515784806851</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.09861476989</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1039.109063871873</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>818.3164847283425</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2804.65264778894</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2635.716464861033</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2485.599825448698</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>3979.184900903575</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3724.500412697688</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3435.083242660728</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3207.09369176271</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>2986.30111261918</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2126.309465880251</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>403.0086152208354</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>403.0086152208354</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>235.8125159357153</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>94.10068477791341</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.661728554219422</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>149.4264805093823</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>111.1976478713713</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.54986409392966</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194536</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.98465480592341</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934650.9824675408</v>
+        <v>934650.9824675407</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062535</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
@@ -26343,10 +26343,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
         <v>90964.0109881571</v>
@@ -26524,46 +26524,46 @@
         <v>-1014491.591111966</v>
       </c>
       <c r="C6" t="n">
-        <v>314253.1546156263</v>
+        <v>314253.1546156266</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156266</v>
+        <v>314253.1546156267</v>
       </c>
       <c r="E6" t="n">
-        <v>66154.65695818557</v>
+        <v>65807.2777038288</v>
       </c>
       <c r="F6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111838</v>
       </c>
       <c r="G6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111837</v>
       </c>
       <c r="H6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111834</v>
       </c>
       <c r="I6" t="n">
-        <v>391567.1187655407</v>
+        <v>391219.739511184</v>
       </c>
       <c r="J6" t="n">
-        <v>174035.9163682633</v>
+        <v>173688.5371139064</v>
       </c>
       <c r="K6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111837</v>
       </c>
       <c r="L6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111839</v>
       </c>
       <c r="M6" t="n">
-        <v>306512.0908300291</v>
+        <v>306164.7115756719</v>
       </c>
       <c r="N6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111839</v>
       </c>
       <c r="O6" t="n">
-        <v>391567.1187655408</v>
+        <v>391219.7395111839</v>
       </c>
       <c r="P6" t="n">
-        <v>391567.1187655409</v>
+        <v>391219.7395111839</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>42.42618194831959</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>290.3129182374929</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>271.0927984840475</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>85.89778947035046</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.4044283016579</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>106.6658967392261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>89.09306974517449</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>123.8866369983276</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.3966965679709</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2.98509025987305e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31840,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464131.018409209</v>
+        <v>1465891.548711994</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.41818244097614</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.87956703897726</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>74.75769145492382</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>320.9782562713614</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>300.3401491857031</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>33.36459702978399</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.6407719183061</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>95.81514163764196</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>16.09765778288657</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>1.29409613628068</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300864</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>37.41782514684107</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>13.72582864853771</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392057</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428526</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3656974031032</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.0249360836216</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>142.0249360836216</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>1120.784960279158</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4603,7 +4603,7 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
         <v>2277.953133796417</v>
@@ -4612,7 +4612,7 @@
         <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1803.762477684623</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1803.762477684623</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1514.659610810266</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1514.659610810266</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1225.242440773306</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>997.2528898752885</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995486</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228003</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031472</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1830.511576737339</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1575.827088531452</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>546.5917956728314</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>398.6787020904383</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179095</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>593.6115863900026</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6220,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270479</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782988</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038375</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
         <v>261.0127623330919</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.59775584152629</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>149.4264805093823</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.8903782529634</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>84.77391660561919</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>111.1976478713713</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.6952193743935</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>92.12028678808259</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>20.61870490125339</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219386</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891656</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214788</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>919018.9160214787</v>
+        <v>919018.9160214786</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>919018.9160214786</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>919018.9160214788</v>
+        <v>919018.9160214787</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
@@ -26325,19 +26325,19 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815714</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90964.01098815711</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26527,43 +26527,43 @@
         <v>314253.1546156266</v>
       </c>
       <c r="D6" t="n">
-        <v>314253.1546156267</v>
+        <v>314253.1546156268</v>
       </c>
       <c r="E6" t="n">
-        <v>65807.2777038288</v>
+        <v>66119.9190327495</v>
       </c>
       <c r="F6" t="n">
-        <v>391219.7395111838</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="G6" t="n">
-        <v>391219.7395111837</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="H6" t="n">
-        <v>391219.7395111834</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="I6" t="n">
-        <v>391219.739511184</v>
+        <v>391532.3808401051</v>
       </c>
       <c r="J6" t="n">
-        <v>173688.5371139064</v>
+        <v>174001.1784428276</v>
       </c>
       <c r="K6" t="n">
-        <v>391219.7395111837</v>
+        <v>391532.3808401049</v>
       </c>
       <c r="L6" t="n">
-        <v>391219.7395111839</v>
+        <v>391532.3808401052</v>
       </c>
       <c r="M6" t="n">
-        <v>306164.7115756719</v>
+        <v>306477.3529045932</v>
       </c>
       <c r="N6" t="n">
-        <v>391219.7395111839</v>
+        <v>391532.380840105</v>
       </c>
       <c r="O6" t="n">
-        <v>391219.7395111839</v>
+        <v>391532.380840105</v>
       </c>
       <c r="P6" t="n">
-        <v>391219.7395111839</v>
+        <v>391532.380840105</v>
       </c>
     </row>
   </sheetData>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>325.4417151617375</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>290.3129182374929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>150.95241314296</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>85.89778947035006</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>85.89778947035046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>156.4044283016579</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.09306974517449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>190.3966965679709</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295643</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
